--- a/firebase_data_spySOC.xlsx
+++ b/firebase_data_spySOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E828"/>
+  <dimension ref="A1:E829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14508,11 +14508,28 @@
       <c r="B828" s="2" t="n">
         <v>45763.47916666666</v>
       </c>
-      <c r="C828" t="inlineStr"/>
+      <c r="C828" t="n">
+        <v>0</v>
+      </c>
       <c r="D828" t="n">
         <v>0</v>
       </c>
-      <c r="E828" t="inlineStr"/>
+      <c r="E828" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" s="2" t="n">
+        <v>45764.47916666666</v>
+      </c>
+      <c r="C829" t="inlineStr"/>
+      <c r="D829" t="n">
+        <v>1</v>
+      </c>
+      <c r="E829" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spySOC.xlsx
+++ b/firebase_data_spySOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E829"/>
+  <dimension ref="A1:E832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14525,11 +14525,62 @@
       <c r="B829" s="2" t="n">
         <v>45764.47916666666</v>
       </c>
-      <c r="C829" t="inlineStr"/>
+      <c r="C829" t="n">
+        <v>0</v>
+      </c>
       <c r="D829" t="n">
         <v>1</v>
       </c>
-      <c r="E829" t="inlineStr"/>
+      <c r="E829" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" s="2" t="n">
+        <v>45768.47916666666</v>
+      </c>
+      <c r="C830" t="n">
+        <v>0</v>
+      </c>
+      <c r="D830" t="n">
+        <v>0</v>
+      </c>
+      <c r="E830" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" s="2" t="n">
+        <v>45769.47916666666</v>
+      </c>
+      <c r="C831" t="n">
+        <v>1</v>
+      </c>
+      <c r="D831" t="n">
+        <v>0</v>
+      </c>
+      <c r="E831" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" s="2" t="n">
+        <v>45770.47916666666</v>
+      </c>
+      <c r="C832" t="inlineStr"/>
+      <c r="D832" t="n">
+        <v>1</v>
+      </c>
+      <c r="E832" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spySOC.xlsx
+++ b/firebase_data_spySOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E832"/>
+  <dimension ref="A1:E834"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14576,11 +14576,45 @@
       <c r="B832" s="2" t="n">
         <v>45770.47916666666</v>
       </c>
-      <c r="C832" t="inlineStr"/>
+      <c r="C832" t="n">
+        <v>0</v>
+      </c>
       <c r="D832" t="n">
         <v>1</v>
       </c>
-      <c r="E832" t="inlineStr"/>
+      <c r="E832" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" s="2" t="n">
+        <v>45771.47916666666</v>
+      </c>
+      <c r="C833" t="n">
+        <v>1</v>
+      </c>
+      <c r="D833" t="n">
+        <v>1</v>
+      </c>
+      <c r="E833" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" s="2" t="n">
+        <v>45772.47916666666</v>
+      </c>
+      <c r="C834" t="inlineStr"/>
+      <c r="D834" t="n">
+        <v>1</v>
+      </c>
+      <c r="E834" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spySOC.xlsx
+++ b/firebase_data_spySOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E834"/>
+  <dimension ref="A1:E837"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14610,11 +14610,62 @@
       <c r="B834" s="2" t="n">
         <v>45772.47916666666</v>
       </c>
-      <c r="C834" t="inlineStr"/>
+      <c r="C834" t="n">
+        <v>1</v>
+      </c>
       <c r="D834" t="n">
         <v>1</v>
       </c>
-      <c r="E834" t="inlineStr"/>
+      <c r="E834" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" s="2" t="n">
+        <v>45775.47916666666</v>
+      </c>
+      <c r="C835" t="n">
+        <v>0</v>
+      </c>
+      <c r="D835" t="n">
+        <v>1</v>
+      </c>
+      <c r="E835" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" s="2" t="n">
+        <v>45776.47916666666</v>
+      </c>
+      <c r="C836" t="n">
+        <v>1</v>
+      </c>
+      <c r="D836" t="n">
+        <v>1</v>
+      </c>
+      <c r="E836" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" s="2" t="n">
+        <v>45777.47916666666</v>
+      </c>
+      <c r="C837" t="inlineStr"/>
+      <c r="D837" t="n">
+        <v>0</v>
+      </c>
+      <c r="E837" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spySOC.xlsx
+++ b/firebase_data_spySOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E837"/>
+  <dimension ref="A1:E839"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14661,11 +14661,45 @@
       <c r="B837" s="2" t="n">
         <v>45777.47916666666</v>
       </c>
-      <c r="C837" t="inlineStr"/>
+      <c r="C837" t="n">
+        <v>1</v>
+      </c>
       <c r="D837" t="n">
         <v>0</v>
       </c>
-      <c r="E837" t="inlineStr"/>
+      <c r="E837" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" s="2" t="n">
+        <v>45778.47916666666</v>
+      </c>
+      <c r="C838" t="n">
+        <v>0</v>
+      </c>
+      <c r="D838" t="n">
+        <v>1</v>
+      </c>
+      <c r="E838" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" s="2" t="n">
+        <v>45779.47916666666</v>
+      </c>
+      <c r="C839" t="inlineStr"/>
+      <c r="D839" t="n">
+        <v>1</v>
+      </c>
+      <c r="E839" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
